--- a/data/General Lagos.xlsx
+++ b/data/General Lagos.xlsx
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
